--- a/data/poprawki_publikacje.xlsx
+++ b/data/poprawki_publikacje.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="P_list" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t xml:space="preserve">Label_en</t>
   </si>
@@ -80,35 +80,7 @@
     <t xml:space="preserve">Len</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Słownik staropolski. T. 1-11 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Urbańczyk. S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">Słownik staropolski. T. 1-11 (Urbańczyk. S)</t>
   </si>
   <si>
     <t xml:space="preserve">Q79402</t>
@@ -241,6 +213,24 @@
   </si>
   <si>
     <t xml:space="preserve">Średniowieczny dwór rycerski w Polsce : wizerunek archeologiczny (Marciniak-Kajzer A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urban settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">described by source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forest settlement of a village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city/town</t>
   </si>
   <si>
     <t xml:space="preserve">Sheet</t>
@@ -250,11 +240,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -307,12 +298,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +345,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -393,6 +378,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,6 +404,82 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Normalny 2" xfId="20"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="238"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFF9CB9C"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +490,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -559,7 +636,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.9"/>
@@ -684,8 +761,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1059,6 +1136,211 @@
         <v>62</v>
       </c>
     </row>
+    <row r="33" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="9" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="9" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1092,6 +1374,11 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <conditionalFormatting sqref="B33:B55">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"onto ID"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1122,7 +1409,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>9</v>
